--- a/GL70_TestData_CreateMultipleManualJournalBatches_21B.xlsx
+++ b/GL70_TestData_CreateMultipleManualJournalBatches_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\25th June GL Full Batch\23June-GL Files\Batch2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBC881E-05F3-4FCC-A40E-5DB22FAE9E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271145D-8F47-4B9D-BFA6-A50A4F403EC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -25,80 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Raj Divekar</author>
-  </authors>
-  <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{36204246-E8EE-42D7-84B4-189E0BD614A5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Provide Unique AlphaNumeric or Numeric value
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{B27CBE43-E6BD-49FB-839C-F02F331CA548}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Raj Divekar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Provide Unique AlphaNumeric or Numeric value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{9341C7C5-DDA2-4329-87FE-FF3864BA811A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Raj Divekar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Provide Unique AlphaNumeric or Numeric value</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>UserName</t>
   </si>
@@ -202,23 +130,32 @@
     <t>Accrual Clearing</t>
   </si>
   <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>BtchTesting16</t>
-  </si>
-  <si>
-    <t>BtchTesting17</t>
-  </si>
-  <si>
-    <t>BtchTesting18</t>
+    <t>Provide Unique AlphaNumeric or Numeric value</t>
+  </si>
+  <si>
+    <t>Batch Testing</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>Period should not be prior</t>
+  </si>
+  <si>
+    <t>BatchTesting306</t>
+  </si>
+  <si>
+    <t>BatchTesting307</t>
+  </si>
+  <si>
+    <t>BatchTesting308</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,19 +171,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,7 +181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,16 +213,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -322,13 +254,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -383,13 +315,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -432,13 +364,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -481,13 +413,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -542,13 +474,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -888,36 +820,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.453125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.81640625" customWidth="1"/>
-    <col min="13" max="14" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24" customWidth="1"/>
-    <col min="25" max="25" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.36328125" customWidth="1"/>
+    <col min="10" max="10" width="49.7265625" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="31.36328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="26.26953125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -927,81 +860,81 @@
     <col min="32" max="32" width="6.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>11</v>
@@ -1013,91 +946,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="S2" s="6">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="T2" s="6">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="U2" s="6">
         <v>30</v>
       </c>
-      <c r="E2" s="2">
+      <c r="V2" s="6">
         <v>15</v>
       </c>
-      <c r="F2" s="2">
+      <c r="W2" s="6">
         <v>30</v>
       </c>
-      <c r="G2" s="2">
+      <c r="X2" s="6">
         <v>60</v>
       </c>
-      <c r="H2" s="2">
+      <c r="Y2" s="6">
         <v>120</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
